--- a/data/trans_bre/P19C07-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C07-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 0,71</t>
+          <t>-4,12; 0,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 6,38</t>
+          <t>-1,43; 6,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 4,85</t>
+          <t>-0,22; 4,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 5,23</t>
+          <t>-0,39; 5,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-90,44; 56,37</t>
+          <t>-88,41; 58,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,92; 313,94</t>
+          <t>-36,82; 331,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-30,61; 824,84</t>
+          <t>-32,46; 714,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 181,22</t>
+          <t>-9,37; 206,77</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 4,02</t>
+          <t>-1,91; 4,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,58</t>
+          <t>-1,16; 2,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 2,5</t>
+          <t>-3,47; 2,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 4,15</t>
+          <t>-1,35; 4,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,84; 196,62</t>
+          <t>-42,68; 192,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-63,93; 479,32</t>
+          <t>-68,98; 601,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-62,31; 148,58</t>
+          <t>-69,69; 116,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,36; 207,38</t>
+          <t>-36,06; 209,14</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 1,99</t>
+          <t>-4,69; 1,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 2,74</t>
+          <t>-2,6; 2,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 5,07</t>
+          <t>-3,12; 5,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 4,3</t>
+          <t>-1,89; 4,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-85,22; 79,94</t>
+          <t>-100,0; 46,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-68,02; 137,87</t>
+          <t>-65,37; 150,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-79,61; 242,93</t>
+          <t>-79,68; 197,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-50,52; 443,14</t>
+          <t>-49,33; 440,44</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 2,93</t>
+          <t>-1,03; 2,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 3,28</t>
+          <t>-0,37; 3,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,04; 3,66</t>
+          <t>0,1; 3,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 3,23</t>
+          <t>-1,34; 3,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,05; 142,56</t>
+          <t>-30,55; 140,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 166,74</t>
+          <t>-16,6; 168,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 192,85</t>
+          <t>0,13; 204,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,68; 152,94</t>
+          <t>-31,21; 148,03</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 3,96</t>
+          <t>-2,4; 3,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 2,21</t>
+          <t>-1,68; 1,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 2,43</t>
+          <t>-1,61; 2,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 1,31</t>
+          <t>-6,04; 1,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-40,27; 228,87</t>
+          <t>-46,63; 207,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-47,5; 210,44</t>
+          <t>-52,25; 179,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-49,48; 222,89</t>
+          <t>-52,9; 258,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-74,13; 77,87</t>
+          <t>-74,08; 77,29</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 1,07</t>
+          <t>-5,42; 0,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,48; -3,41</t>
+          <t>-12,77; -3,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 0,91</t>
+          <t>-6,01; 0,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 2,27</t>
+          <t>-10,14; 2,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-67,08; 41,55</t>
+          <t>-70,32; 31,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-77,44; -40,54</t>
+          <t>-77,84; -41,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-62,93; 25,94</t>
+          <t>-65,64; 18,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-77,86; 155,05</t>
+          <t>-80,88; 137,76</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 1,04</t>
+          <t>-0,98; 1,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 1,19</t>
+          <t>-0,73; 1,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 1,69</t>
+          <t>-0,22; 1,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 1,87</t>
+          <t>-0,56; 1,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-26,67; 35,98</t>
+          <t>-25,03; 34,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,13; 42,84</t>
+          <t>-18,19; 44,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 70,22</t>
+          <t>-7,24; 67,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 83,6</t>
+          <t>-13,88; 77,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C07-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C07-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
